--- a/bos-onboarding/test/darshan_test_cb.xlsx
+++ b/bos-onboarding/test/darshan_test_cb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\build2auto\bos-tools\bos-onboarding\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\bos-tools\bos-onboarding\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69226E4-D4DB-42AA-B8CB-5DB7A46C647E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC85FE-6092-47E1-BE9E-4E6DB4EBA41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>dbo.section</t>
   </si>
@@ -54,25 +54,16 @@
     <t>FACILITIES/BUILDING</t>
   </si>
   <si>
-    <t>3654fc48-914e-4a55-82f6-126534244886</t>
-  </si>
-  <si>
     <t>Floors</t>
   </si>
   <si>
     <t>FACILITIES/FLOOR</t>
   </si>
   <si>
-    <t>a388563d-58e3-4534-b133-19389f6650a4</t>
-  </si>
-  <si>
     <t>Rooms</t>
   </si>
   <si>
     <t>FACILITIES/ROOM</t>
-  </si>
-  <si>
-    <t>b9f2c8b8-d67e-4b50-824a-7b48ff877429</t>
   </si>
   <si>
     <t>entity_instance_name</t>
@@ -213,9 +204,6 @@
     <t>1.4.2</t>
   </si>
   <si>
-    <t>9e7c08d9-5c7b-47c7-a664-9e01cb070d39</t>
-  </si>
-  <si>
     <t>RS256_X509</t>
   </si>
   <si>
@@ -243,12 +231,6 @@
     <t>AV1</t>
   </si>
   <si>
-    <t>ELECTRICAL/CB_SS</t>
-  </si>
-  <si>
-    <t>1=ON 0=OFF</t>
-  </si>
-  <si>
     <t>dbo.cloud_device_id</t>
   </si>
   <si>
@@ -256,42 +238,6 @@
   </si>
   <si>
     <t>IN-BLR-ANANTA</t>
-  </si>
-  <si>
-    <t>CB-1</t>
-  </si>
-  <si>
-    <t>CB-1,CB-2</t>
-  </si>
-  <si>
-    <t>HLI-1</t>
-  </si>
-  <si>
-    <t>run_status</t>
-  </si>
-  <si>
-    <t>BV1</t>
-  </si>
-  <si>
-    <t>IN-BLR-ANANTA-1ELECRM</t>
-  </si>
-  <si>
-    <t>9e7c08d9-5c7b-47c7-a764-9e01cb070d39</t>
-  </si>
-  <si>
-    <t>9e7c08d9-5c7b-47c7-a964-9e01cb070d39</t>
-  </si>
-  <si>
-    <t>CB-2</t>
-  </si>
-  <si>
-    <t>GATEWAY/PASSTHROUGH</t>
-  </si>
-  <si>
-    <t>discharge_fan_run_command</t>
-  </si>
-  <si>
-    <t>IN-BLR-ANANTA-1</t>
   </si>
   <si>
     <t>dbo.flag</t>
@@ -303,10 +249,76 @@
     <t>N</t>
   </si>
   <si>
-    <t>run_command</t>
+    <t>GATEWAYS/PASSTHROUGH</t>
   </si>
   <si>
-    <t>BV2</t>
+    <t>IN-BLR-ANANTA-2</t>
+  </si>
+  <si>
+    <t>IN-BLR-ANANTA-2-1ELECRM</t>
+  </si>
+  <si>
+    <t>d9fd1270-218c-4998-ab93-c7be5bd22f31</t>
+  </si>
+  <si>
+    <t>28ed1456-9605-452d-8caf-164ddc4a7081</t>
+  </si>
+  <si>
+    <t>ece78ab4-747d-42f3-8594-6081c1481319</t>
+  </si>
+  <si>
+    <t>HLI-18</t>
+  </si>
+  <si>
+    <t>VAV-216</t>
+  </si>
+  <si>
+    <t>06a4cc6e-4439-409b-9373-5b09dcddc2d3</t>
+  </si>
+  <si>
+    <t>e2c7f874-7c55-4355-bb43-969400b74a88</t>
+  </si>
+  <si>
+    <t>HVAC/VAV_SD_CO2C</t>
+  </si>
+  <si>
+    <t>supply_air_damper_percentage_command</t>
+  </si>
+  <si>
+    <t>supply_air_flowrate_sensor</t>
+  </si>
+  <si>
+    <t>supply_air_flowrate_setpoint</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentration_sensor</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentration_setpoint</t>
+  </si>
+  <si>
+    <t>AV4</t>
+  </si>
+  <si>
+    <t>AV5</t>
+  </si>
+  <si>
+    <t>AV6</t>
+  </si>
+  <si>
+    <t>AV1165</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>cubic_feet_per_minute</t>
+  </si>
+  <si>
+    <t>parts_per_million</t>
+  </si>
+  <si>
+    <t>percent: percent</t>
   </si>
 </sst>
 </file>
@@ -404,13 +416,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -421,7 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -678,47 +688,47 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1"/>
@@ -1727,9 +1737,9 @@
   </sheetPr>
   <dimension ref="A1:AD1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1743,7 +1753,7 @@
     <col min="10" max="10" width="18.08984375" customWidth="1"/>
     <col min="11" max="11" width="17.08984375" customWidth="1"/>
     <col min="12" max="12" width="30" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="13" max="13" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.81640625" customWidth="1"/>
     <col min="15" max="15" width="27.6328125" customWidth="1"/>
     <col min="16" max="17" width="23.6328125" customWidth="1"/>
@@ -1755,87 +1765,88 @@
     <col min="23" max="23" width="15.6328125" customWidth="1"/>
     <col min="24" max="24" width="14.36328125" customWidth="1"/>
     <col min="25" max="25" width="16.90625" customWidth="1"/>
-    <col min="26" max="30" width="14.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
+      <c r="H1" s="9" t="s">
+        <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
@@ -1844,53 +1855,55 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>76</v>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3">
+        <v>11037</v>
+      </c>
       <c r="R2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1908,53 +1921,53 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>59</v>
+      <c r="H3" s="10" t="s">
+        <v>78</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
         <v>81</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3">
-        <v>1222</v>
+        <v>11037</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1971,79 +1984,47 @@
       <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <v>1222</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="4">
-        <v>3444</v>
-      </c>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -34023,9 +34004,9 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -34043,146 +34024,166 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>79</v>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -34390,7 +34391,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
@@ -34423,7 +34424,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
@@ -34456,7 +34457,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
@@ -34610,7 +34611,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
@@ -34717,7 +34718,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -34728,7 +34729,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -34750,7 +34751,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -34772,7 +34773,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="4"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -34794,7 +34795,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -34816,7 +34817,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="7"/>
       <c r="E64" s="4"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -34953,7 +34954,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I76" s="4"/>
     </row>
@@ -34977,7 +34978,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I78" s="4"/>
     </row>
@@ -35210,7 +35211,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I99" s="4"/>
     </row>
@@ -35223,7 +35224,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I100" s="4"/>
     </row>
@@ -35467,10 +35468,10 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
@@ -35482,10 +35483,10 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1">
@@ -35498,7 +35499,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1">
@@ -35510,10 +35511,10 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1">
@@ -35526,7 +35527,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1">
@@ -35538,10 +35539,10 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1">
@@ -35554,7 +35555,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1">
@@ -35567,7 +35568,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1">
@@ -35580,7 +35581,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1">
@@ -35592,10 +35593,10 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1">
@@ -35608,7 +35609,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1">
@@ -35621,7 +35622,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1">
@@ -35634,7 +35635,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1">
@@ -35647,7 +35648,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1">
@@ -35660,7 +35661,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1">
@@ -35673,7 +35674,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1">
@@ -35708,7 +35709,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1">
@@ -35918,10 +35919,10 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1">
@@ -35934,7 +35935,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1"/>
@@ -36779,7 +36780,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36807,19 +36808,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -37471,316 +37472,316 @@
       <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="148" spans="1:6" ht="15.75" customHeight="1"/>
@@ -38665,61 +38666,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1"/>
